--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,24 +472,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ON Whey</t>
+          <t>Badam</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>500</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -499,24 +499,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Badam</t>
+          <t>kaju</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -526,21 +526,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kaju</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
@@ -553,21 +553,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
@@ -580,24 +580,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t>injeer</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -607,53 +607,26 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>injeer</t>
+          <t xml:space="preserve">Creatine </t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="E7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Creatine </t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>93</v>
-      </c>
-      <c r="D8" t="n">
-        <v>150</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
         <v>50</v>
@@ -580,21 +580,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>injeer</t>
+          <t xml:space="preserve">Creatine </t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -611,24 +611,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Creatine </t>
+          <t>protine powder</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="D7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-13</t>
         </is>
       </c>
     </row>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
         <v>50</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" t="n">
         <v>150</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="D7" t="n">
         <v>100</v>
@@ -629,6 +629,33 @@
       <c r="G7" t="inlineStr">
         <is>
           <t>2025-03-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ON Whey</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>89</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>date_added</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>is_custom</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -480,7 +495,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
         <v>60</v>
@@ -496,6 +511,9 @@
           <t>2025-03-10</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -507,7 +525,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
         <v>50</v>
@@ -523,6 +541,9 @@
           <t>2025-03-10</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -534,7 +555,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
         <v>120</v>
@@ -550,6 +571,9 @@
           <t>2025-03-10</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +601,9 @@
           <t>2025-03-10</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,7 +615,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D6" t="n">
         <v>150</v>
@@ -604,6 +631,9 @@
           <t>2025-03-10</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -615,7 +645,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
         <v>100</v>
@@ -631,6 +661,9 @@
           <t>2025-03-13</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -642,7 +675,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D8" t="n">
         <v>100</v>
@@ -656,6 +689,51 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[{"id":"2","name":"Badam","price":85,"quantity":1},{"id":"3","name":"kaju","price":75,"quantity":1},{"id":"4","name":"apple","price":150,"quantity":1},{"id":"5","name":"banana","price":65,"quantity":1}]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>maryam</t>
         </is>
       </c>
     </row>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n">
         <v>60</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
         <v>150</v>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
         <v>375</v>
@@ -732,6 +732,48 @@
         </is>
       </c>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>maryam</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>420</v>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[{"id":"2","name":"Badam","price":85,"quantity":2},{"id":"7","name":"ON Whey","price":125,"quantity":2}]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>maryam</t>
         </is>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,315 +469,6 @@
           <t>date_added</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>is_custom</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>recipe</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>created_by</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Badam</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>60</v>
-      </c>
-      <c r="E2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>kaju</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>apple</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>76</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>banana</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>74</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Creatine </t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>82</v>
-      </c>
-      <c r="D6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>protine powder</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>84</v>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ON Whey</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>84</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>food</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>19</v>
-      </c>
-      <c r="D9" t="n">
-        <v>375</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[{"id":"2","name":"Badam","price":85,"quantity":1},{"id":"3","name":"kaju","price":75,"quantity":1},{"id":"4","name":"apple","price":150,"quantity":1},{"id":"5","name":"banana","price":65,"quantity":1}]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>maryam</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>420</v>
-      </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[{"id":"2","name":"Badam","price":85,"quantity":2},{"id":"7","name":"ON Whey","price":125,"quantity":2}]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>maryam</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassaan\Documents\everything\project\GYM\GYM\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0D63B-3321-4B44-ADD0-FB40881DF558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>stock_type</t>
+  </si>
+  <si>
+    <t>servings</t>
+  </si>
+  <si>
+    <t>cost_per_serving</t>
+  </si>
+  <si>
+    <t>profit_per_serving</t>
+  </si>
+  <si>
+    <t>other_charges</t>
+  </si>
+  <si>
+    <t>date_added</t>
+  </si>
+  <si>
+    <t>ON Whey</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>kaju</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +87,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,54 +411,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stock_type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>servings</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cost_per_serving</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>profit_per_serving</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>other_charges</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>date_added</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>98</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -1,78 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassaan\Documents\everything\project\GYM\GYM\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0D63B-3321-4B44-ADD0-FB40881DF558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>stock_type</t>
-  </si>
-  <si>
-    <t>servings</t>
-  </si>
-  <si>
-    <t>cost_per_serving</t>
-  </si>
-  <si>
-    <t>profit_per_serving</t>
-  </si>
-  <si>
-    <t>other_charges</t>
-  </si>
-  <si>
-    <t>date_added</t>
-  </si>
-  <si>
-    <t>ON Whey</t>
-  </si>
-  <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
-    <t>kaju</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,84 +420,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stock_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>servings</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cost_per_serving</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>profit_per_serving</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>other_charges</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date_added</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ON Whey</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kaju</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>92</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Milk</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>98</v>
-      </c>
-      <c r="D2">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>98</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
         <v>100</v>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
         <v>100</v>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassaan\Documents\everything\project\New folder\gym_management\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0388EDE-2BAB-43C1-824C-AEE2E24DD09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>stock_type</t>
+  </si>
+  <si>
+    <t>servings</t>
+  </si>
+  <si>
+    <t>cost_per_serving</t>
+  </si>
+  <si>
+    <t>profit_per_serving</t>
+  </si>
+  <si>
+    <t>other_charges</t>
+  </si>
+  <si>
+    <t>date_added</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +78,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,135 +402,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stock_type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>servings</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cost_per_serving</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>profit_per_serving</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>other_charges</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>date_added</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ON Whey</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45</v>
-      </c>
-      <c r="E2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>kaju</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Milk</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>44</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>date_added</t>
-  </si>
-  <si>
-    <t>ON Whey</t>
-  </si>
-  <si>
-    <t>kaju</t>
-  </si>
-  <si>
-    <t>09-04-2025</t>
   </si>
 </sst>
 </file>
@@ -401,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,52 +421,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>89</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>989</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
